--- a/spec/MGMT_PIB.xlsx
+++ b/spec/MGMT_PIB.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\python_project\spec\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GET_TIMING" sheetId="1" r:id="rId1"/>
@@ -148,14 +153,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,345 +163,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -538,251 +220,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -809,61 +249,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1150,24 +546,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="12.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1179,7 +575,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1191,7 +587,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1203,7 +599,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1215,7 +611,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1227,7 +623,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1239,7 +635,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1252,50 +648,47 @@
       <c r="J7" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="12.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="11.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="12.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="11.5555555555556" customWidth="1"/>
-    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1322,7 +715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1343,7 +736,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1364,7 +757,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1385,7 +778,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1406,7 +799,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1427,7 +820,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1448,7 +841,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1469,7 +862,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1490,7 +883,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1511,7 +904,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1532,7 +925,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1553,7 +946,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1574,7 +967,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1595,7 +988,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1617,8 +1010,8 @@
       <c r="I15" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/spec/MGMT_PIB.xlsx
+++ b/spec/MGMT_PIB.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="GET_TIMING" sheetId="1" r:id="rId1"/>
+    <sheet name="TX_DAT" sheetId="1" r:id="rId1"/>
     <sheet name="TX_INIT" sheetId="2" r:id="rId2"/>
-    <sheet name="TX_DAT" sheetId="3" r:id="rId3"/>
+    <sheet name="GET_TIMING" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>字段</t>
   </si>
@@ -58,6 +58,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -68,6 +69,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -75,86 +77,214 @@
     </r>
   </si>
   <si>
-    <t>/1-3</t>
-  </si>
-  <si>
     <t>TX_DAT_SET_TIME</t>
   </si>
   <si>
-    <t>/4-7</t>
-  </si>
-  <si>
     <t>TX_START_OF_PACKET</t>
   </si>
   <si>
-    <t>/8-11</t>
-  </si>
-  <si>
     <t>TX_START_OF_SIG</t>
   </si>
   <si>
-    <t>/12-15</t>
-  </si>
-  <si>
     <t>TX_START_OF_PHR</t>
   </si>
   <si>
-    <t>/16-19</t>
-  </si>
-  <si>
     <t>TX_END_OF_PHR</t>
   </si>
   <si>
-    <t>/20-23</t>
-  </si>
-  <si>
     <t>TX_END_OF_PAYLOAD</t>
   </si>
   <si>
-    <t>/24-27</t>
-  </si>
-  <si>
     <t>RX_SET_DET</t>
   </si>
   <si>
-    <t>/28-31</t>
-  </si>
-  <si>
     <t>RX_START_OF_SIG</t>
   </si>
   <si>
-    <t>/32-35</t>
-  </si>
-  <si>
     <t>RX_START_OF_PHR</t>
   </si>
   <si>
-    <t>/36-39</t>
-  </si>
-  <si>
     <t>RX_END_OF_PHR</t>
   </si>
   <si>
-    <t>/40-43</t>
-  </si>
-  <si>
     <t>RX_END_OF_PAYLOAD</t>
   </si>
   <si>
-    <t>/44-47</t>
-  </si>
-  <si>
     <t>RX_DAT_IND</t>
   </si>
   <si>
-    <t>/48-51</t>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32-35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36-39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44-47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48-51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段大小(比特)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表数目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX_FRAME_TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX_TIMER</t>
+  </si>
+  <si>
+    <t>TX_SIG</t>
+  </si>
+  <si>
+    <t>TX_LEVEL</t>
+  </si>
+  <si>
+    <t>TX_DAT_MCS</t>
+  </si>
+  <si>
+    <t>TX_DAT_PB</t>
+  </si>
+  <si>
+    <t>TX_FORCE_ENABLE</t>
+  </si>
+  <si>
+    <t>TX_DAT_LEN</t>
+  </si>
+  <si>
+    <t>TX_PHR</t>
+  </si>
+  <si>
+    <t>TX_PSDU</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX_DAT_LEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,11 +295,51 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -184,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,26 +377,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,13 +396,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -308,7 +483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,7 +518,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,100 +727,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="9" max="9" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="1"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="9">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="9">
+        <v>8</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="9">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="9">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="9">
+        <v>8</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="9">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="9">
+        <v>128</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9">
+        <v>8</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -672,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -722,7 +1079,7 @@
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -743,8 +1100,8 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -762,10 +1119,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -783,10 +1140,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -804,10 +1161,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -825,10 +1182,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -846,10 +1203,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -867,10 +1224,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -888,10 +1245,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -909,10 +1266,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -930,10 +1287,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -951,10 +1308,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -972,13 +1329,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
@@ -993,9 +1350,9 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">

--- a/spec/MGMT_PIB.xlsx
+++ b/spec/MGMT_PIB.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TX_DAT" sheetId="1" r:id="rId1"/>
-    <sheet name="TX_INIT" sheetId="2" r:id="rId2"/>
+    <sheet name="TX_INIT" sheetId="2" r:id="rId1"/>
+    <sheet name="TX_DAT" sheetId="1" r:id="rId2"/>
     <sheet name="GET_TIMING" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -209,74 +209,76 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>TX_LEVEL</t>
+  </si>
+  <si>
+    <t>TX_DAT_MCS</t>
+  </si>
+  <si>
+    <t>TX_DAT_PB</t>
+  </si>
+  <si>
+    <t>TX_FORCE_ENABLE</t>
+  </si>
+  <si>
+    <t>TX_DAT_LEN</t>
+  </si>
+  <si>
+    <t>TX_PHR</t>
+  </si>
+  <si>
+    <t>TX_PSDU</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX_DAT_LEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX_TIMER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>TX_FRAME_TYPE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TX_TIMER</t>
-  </si>
-  <si>
     <t>TX_SIG</t>
-  </si>
-  <si>
-    <t>TX_LEVEL</t>
-  </si>
-  <si>
-    <t>TX_DAT_MCS</t>
-  </si>
-  <si>
-    <t>TX_DAT_PB</t>
-  </si>
-  <si>
-    <t>TX_FORCE_ENABLE</t>
-  </si>
-  <si>
-    <t>TX_DAT_LEN</t>
-  </si>
-  <si>
-    <t>TX_PHR</t>
-  </si>
-  <si>
-    <t>TX_PSDU</t>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX_DAT_LEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-28</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,11 +419,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,10 +732,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -775,7 +796,7 @@
       <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="10">
@@ -796,8 +817,8 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>47</v>
+      <c r="B3" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -817,11 +838,11 @@
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>48</v>
+      <c r="B4" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>46</v>
@@ -838,11 +859,11 @@
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>49</v>
+      <c r="B5" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>46</v>
@@ -859,11 +880,11 @@
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>50</v>
+      <c r="B6" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>46</v>
@@ -880,11 +901,11 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>51</v>
+      <c r="B7" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>46</v>
@@ -901,11 +922,11 @@
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>52</v>
+      <c r="B8" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>46</v>
@@ -922,11 +943,11 @@
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>61</v>
+      <c r="B9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>46</v>
@@ -943,11 +964,11 @@
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>46</v>
@@ -964,11 +985,11 @@
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>55</v>
+      <c r="B11" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>46</v>
@@ -985,11 +1006,11 @@
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>56</v>
+      <c r="B12" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>46</v>
@@ -998,27 +1019,13 @@
         <v>8</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/spec/MGMT_PIB.xlsx
+++ b/spec/MGMT_PIB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="TX_INIT" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>字段</t>
   </si>
@@ -279,6 +279,26 @@
   </si>
   <si>
     <t>TX_SIG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANEL INDEX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -379,13 +399,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,6 +459,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,17 +771,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -750,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/spec/MGMT_PIB.xlsx
+++ b/spec/MGMT_PIB.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\python_project\spec\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TX_INIT" sheetId="2" r:id="rId1"/>
     <sheet name="TX_DAT" sheetId="1" r:id="rId2"/>
     <sheet name="GET_TIMING" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>字段</t>
   </si>
@@ -32,25 +27,91 @@
     <t>比特位</t>
   </si>
   <si>
+    <t>字段大小(比特)</t>
+  </si>
+  <si>
+    <t>依赖字段</t>
+  </si>
+  <si>
+    <t>列表项长度</t>
+  </si>
+  <si>
+    <t>列表数目</t>
+  </si>
+  <si>
+    <t>列表名称</t>
+  </si>
+  <si>
+    <t>芯片类型</t>
+  </si>
+  <si>
+    <t>0-7</t>
+  </si>
+  <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>CHANEL INDEX</t>
+  </si>
+  <si>
+    <t>TX_FRAME_TYPE</t>
+  </si>
+  <si>
+    <t>TX_TIMER</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>TX_SIG</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>TX_LEVEL</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>TX_DAT_MCS</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>TX_DAT_PB</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>TX_FORCE_ENABLE</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>TX_DAT_LEN</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>TX_PHR</t>
+  </si>
+  <si>
+    <t>13-28</t>
+  </si>
+  <si>
+    <t>TX_PSDU</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>字段大小</t>
-  </si>
-  <si>
-    <t>依赖字段</t>
-  </si>
-  <si>
-    <t>列表项长度</t>
-  </si>
-  <si>
-    <t>列表数目</t>
-  </si>
-  <si>
-    <t>列表名称</t>
-  </si>
-  <si>
-    <t>芯片类型</t>
-  </si>
-  <si>
-    <t>0-7</t>
   </si>
   <si>
     <r>
@@ -58,7 +119,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -69,7 +129,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -77,236 +136,92 @@
     </r>
   </si>
   <si>
+    <t>1-3</t>
+  </si>
+  <si>
     <t>TX_DAT_SET_TIME</t>
   </si>
   <si>
+    <t>4-7</t>
+  </si>
+  <si>
     <t>TX_START_OF_PACKET</t>
   </si>
   <si>
+    <t>8-11</t>
+  </si>
+  <si>
     <t>TX_START_OF_SIG</t>
   </si>
   <si>
+    <t>12-15</t>
+  </si>
+  <si>
     <t>TX_START_OF_PHR</t>
   </si>
   <si>
+    <t>16-19</t>
+  </si>
+  <si>
     <t>TX_END_OF_PHR</t>
   </si>
   <si>
+    <t>20-23</t>
+  </si>
+  <si>
     <t>TX_END_OF_PAYLOAD</t>
   </si>
   <si>
+    <t>24-27</t>
+  </si>
+  <si>
     <t>RX_SET_DET</t>
   </si>
   <si>
+    <t>28-31</t>
+  </si>
+  <si>
     <t>RX_START_OF_SIG</t>
   </si>
   <si>
+    <t>32-35</t>
+  </si>
+  <si>
     <t>RX_START_OF_PHR</t>
   </si>
   <si>
+    <t>36-39</t>
+  </si>
+  <si>
     <t>RX_END_OF_PHR</t>
   </si>
   <si>
+    <t>40-43</t>
+  </si>
+  <si>
     <t>RX_END_OF_PAYLOAD</t>
   </si>
   <si>
+    <t>44-47</t>
+  </si>
+  <si>
     <t>RX_DAT_IND</t>
   </si>
   <si>
-    <t>1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24-27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28-31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32-35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36-39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40-43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44-47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>48-51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>比特位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段大小(比特)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项长度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表数目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯片类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX_LEVEL</t>
-  </si>
-  <si>
-    <t>TX_DAT_MCS</t>
-  </si>
-  <si>
-    <t>TX_DAT_PB</t>
-  </si>
-  <si>
-    <t>TX_FORCE_ENABLE</t>
-  </si>
-  <si>
-    <t>TX_DAT_LEN</t>
-  </si>
-  <si>
-    <t>TX_PHR</t>
-  </si>
-  <si>
-    <t>TX_PSDU</t>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX_DAT_LEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX_TIMER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX_FRAME_TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX_SIG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯片类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPTION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANEL INDEX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,38 +230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -355,7 +241,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -363,20 +248,361 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -412,9 +638,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -434,51 +902,95 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -527,7 +1039,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,7 +1074,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -765,61 +1277,61 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="17.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9">
       <c r="B1" s="14" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>8</v>
@@ -829,18 +1341,18 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="18" customHeight="1" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>9</v>
@@ -850,18 +1362,18 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="18" customHeight="1" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
@@ -872,319 +1384,321 @@
       <c r="I4" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="14.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="18.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="12.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:9">
       <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>45</v>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11">
         <v>8</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="18" customHeight="1" spans="1:9">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>65</v>
+      <c r="B3" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11">
         <v>8</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="18" customHeight="1" spans="1:9">
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>64</v>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="9">
+        <v>14</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11">
         <v>32</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="18" customHeight="1" spans="1:9">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>66</v>
+      <c r="B5" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="9">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11">
         <v>8</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="18" customHeight="1" spans="1:9">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>47</v>
+      <c r="B6" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="9">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11">
         <v>8</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="18" customHeight="1" spans="1:9">
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>48</v>
+      <c r="B7" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="9">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11">
         <v>8</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="18" customHeight="1" spans="1:9">
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>49</v>
+      <c r="B8" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="9">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="18" customHeight="1" spans="1:9">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11">
         <v>8</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="18" customHeight="1" spans="1:9">
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>59</v>
+      <c r="B10" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="9">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11">
         <v>16</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="18" customHeight="1" spans="1:9">
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>52</v>
+      <c r="B11" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="9">
+        <v>28</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="11">
         <v>128</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="18" customHeight="1" spans="1:9">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>53</v>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="9">
+        <v>30</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11">
         <v>8</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="24.8796296296296" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="10.8796296296296" customWidth="1"/>
+    <col min="7" max="7" width="12.3796296296296" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="11.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1196,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1211,7 +1725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1232,15 +1746,15 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1253,15 +1767,15 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1274,15 +1788,15 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1295,15 +1809,15 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -1316,15 +1830,15 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -1337,15 +1851,15 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -1358,15 +1872,15 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -1379,15 +1893,15 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -1400,15 +1914,15 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -1421,15 +1935,15 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -1442,15 +1956,15 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -1463,18 +1977,18 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
@@ -1484,15 +1998,15 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1506,8 +2020,8 @@
       <c r="I15" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>